--- a/data/trans_dic/P19D_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,46; 97,66</t>
+          <t>91,09; 97,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,35; 90,65</t>
+          <t>80,89; 90,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89,3; 96,54</t>
+          <t>89,25; 96,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,37; 97,43</t>
+          <t>90,73; 97,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,92; 90,82</t>
+          <t>81,75; 90,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,76; 98,12</t>
+          <t>94,93; 98,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,45; 96,89</t>
+          <t>92,76; 96,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>83,25; 89,63</t>
+          <t>83,16; 89,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,01; 96,89</t>
+          <t>93,27; 96,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,38; 91,86</t>
+          <t>85,42; 91,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,7; 85,11</t>
+          <t>76,81; 85,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,99; 96,66</t>
+          <t>91,72; 96,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,42; 95,58</t>
+          <t>88,49; 95,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,67; 92,86</t>
+          <t>87,63; 93,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,39; 90,65</t>
+          <t>84,21; 90,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,45; 97,07</t>
+          <t>92,7; 97,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,62; 96,49</t>
+          <t>92,59; 96,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,13; 91,56</t>
+          <t>87,42; 91,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>82,04; 86,98</t>
+          <t>81,78; 86,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,21; 96,32</t>
+          <t>93,07; 96,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>91,91; 95,78</t>
+          <t>91,68; 95,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,35; 95,98</t>
+          <t>89,44; 96,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80,29; 88,72</t>
+          <t>79,78; 88,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,63; 94,58</t>
+          <t>88,31; 94,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,6; 96,49</t>
+          <t>91,62; 96,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,95; 96,3</t>
+          <t>91,14; 96,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,2; 89,18</t>
+          <t>81,03; 89,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,11; 94,0</t>
+          <t>87,99; 93,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>93,01; 96,96</t>
+          <t>93,06; 97,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,51; 95,5</t>
+          <t>91,57; 95,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>81,81; 87,8</t>
+          <t>82,27; 87,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,37; 93,64</t>
+          <t>89,44; 93,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,15; 96,17</t>
+          <t>93,24; 96,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,57; 95,87</t>
+          <t>89,72; 95,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,61; 89,4</t>
+          <t>83,68; 89,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,15; 91,84</t>
+          <t>84,86; 91,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92,08; 98,42</t>
+          <t>92,15; 98,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,59; 96,84</t>
+          <t>91,02; 96,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,83; 91,24</t>
+          <t>85,9; 91,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,7; 94,2</t>
+          <t>88,03; 94,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,16; 98,63</t>
+          <t>96,34; 98,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,41; 95,66</t>
+          <t>91,59; 95,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,57; 89,43</t>
+          <t>85,62; 89,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>87,6; 92,39</t>
+          <t>87,68; 92,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,17; 98,12</t>
+          <t>95,17; 98,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,92; 96,37</t>
+          <t>88,21; 96,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,61; 90,73</t>
+          <t>80,98; 90,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,82; 95,4</t>
+          <t>85,71; 95,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,46; 96,0</t>
+          <t>90,65; 96,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,88; 95,71</t>
+          <t>87,14; 95,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,08; 91,77</t>
+          <t>82,37; 91,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,93; 92,38</t>
+          <t>81,09; 92,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,43; 96,23</t>
+          <t>92,56; 96,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,66; 95,24</t>
+          <t>89,58; 95,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,13; 89,85</t>
+          <t>83,41; 90,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>84,78; 92,46</t>
+          <t>84,79; 92,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>92,39; 95,74</t>
+          <t>92,43; 95,65</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,45; 96,92</t>
+          <t>88,77; 96,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,83; 89,15</t>
+          <t>80,02; 89,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,51; 93,59</t>
+          <t>84,94; 93,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>91,16; 96,34</t>
+          <t>91,32; 96,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,11; 98,02</t>
+          <t>91,92; 97,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,15; 89,39</t>
+          <t>81,66; 89,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,4; 95,26</t>
+          <t>88,21; 95,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>90,76; 95,99</t>
+          <t>91,45; 96,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,02; 96,79</t>
+          <t>92,35; 96,99</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,31; 88,49</t>
+          <t>81,97; 88,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>88,35; 93,65</t>
+          <t>88,44; 93,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>92,18; 95,7</t>
+          <t>92,52; 95,84</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>89,88; 94,69</t>
+          <t>89,74; 94,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,05; 90,74</t>
+          <t>85,01; 90,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88,4; 93,93</t>
+          <t>88,45; 94,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>91,3; 96,2</t>
+          <t>91,3; 96,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,66; 95,15</t>
+          <t>90,9; 95,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,5; 93,23</t>
+          <t>88,35; 92,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,67; 93,26</t>
+          <t>87,75; 93,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>93,5; 97,36</t>
+          <t>93,41; 97,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,12; 94,43</t>
+          <t>91,12; 94,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>87,58; 91,39</t>
+          <t>87,45; 91,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>89,12; 93,05</t>
+          <t>88,89; 92,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,13; 96,25</t>
+          <t>93,33; 96,35</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>91,47; 95,72</t>
+          <t>91,44; 95,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,63; 91,91</t>
+          <t>86,34; 91,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>86,86; 92,19</t>
+          <t>86,92; 92,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>60,16; 85,04</t>
+          <t>62,58; 84,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>89,42; 94,08</t>
+          <t>89,43; 94,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>89,22; 93,31</t>
+          <t>88,89; 93,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>88,15; 92,61</t>
+          <t>87,86; 92,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>86,72; 91,49</t>
+          <t>86,78; 91,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>91,07; 94,23</t>
+          <t>91,28; 94,42</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>88,61; 92,07</t>
+          <t>88,6; 92,11</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>88,42; 91,6</t>
+          <t>88,32; 91,64</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>74,92; 87,6</t>
+          <t>74,8; 87,67</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,57; 93,62</t>
+          <t>91,52; 93,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>84,89; 87,56</t>
+          <t>85,01; 87,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>89,51; 91,77</t>
+          <t>89,58; 91,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>84,0; 92,01</t>
+          <t>85,74; 92,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>91,98; 93,93</t>
+          <t>91,94; 93,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>87,81; 90,07</t>
+          <t>87,79; 90,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>90,06; 92,17</t>
+          <t>89,99; 92,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>93,19; 94,92</t>
+          <t>93,31; 94,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>92,12; 93,6</t>
+          <t>92,14; 93,6</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>86,78; 88,58</t>
+          <t>86,92; 88,63</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>90,02; 91,61</t>
+          <t>89,98; 91,59</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>89,48; 93,33</t>
+          <t>89,7; 93,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19D_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,09; 97,59</t>
+          <t>91,02; 97,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,89; 90,78</t>
+          <t>81,33; 90,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,73; 97,45</t>
+          <t>91,29; 97,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,75; 90,92</t>
+          <t>82,04; 90,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,76; 96,81</t>
+          <t>92,66; 96,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>83,16; 89,88</t>
+          <t>83,69; 89,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,42; 91,69</t>
+          <t>85,74; 92,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,81; 85,07</t>
+          <t>76,52; 84,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,72; 96,74</t>
+          <t>92,05; 96,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,63; 93,12</t>
+          <t>87,39; 92,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,21; 90,69</t>
+          <t>84,33; 90,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,7; 97,06</t>
+          <t>92,7; 97,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,42; 91,74</t>
+          <t>87,51; 91,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>81,78; 86,94</t>
+          <t>81,97; 87,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,07; 96,3</t>
+          <t>93,06; 96,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,44; 96,09</t>
+          <t>89,36; 95,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,78; 88,24</t>
+          <t>79,67; 88,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,31; 94,84</t>
+          <t>88,6; 94,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,14; 96,58</t>
+          <t>90,94; 96,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,03; 89,27</t>
+          <t>81,6; 89,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>87,99; 93,97</t>
+          <t>88,06; 94,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,57; 95,6</t>
+          <t>91,39; 95,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>82,27; 87,88</t>
+          <t>81,87; 87,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,44; 93,61</t>
+          <t>89,35; 93,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,72; 95,71</t>
+          <t>88,9; 95,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,68; 89,41</t>
+          <t>83,18; 89,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,86; 91,8</t>
+          <t>84,75; 92,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,02; 96,69</t>
+          <t>91,42; 96,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,9; 91,18</t>
+          <t>86,02; 91,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,03; 94,21</t>
+          <t>88,14; 94,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,59; 95,58</t>
+          <t>91,71; 95,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,62; 89,67</t>
+          <t>85,55; 89,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>87,68; 92,26</t>
+          <t>87,45; 92,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,21; 96,37</t>
+          <t>89,07; 96,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,98; 90,49</t>
+          <t>80,31; 90,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,71; 95,5</t>
+          <t>85,55; 95,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>87,14; 95,63</t>
+          <t>86,6; 95,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,37; 91,66</t>
+          <t>82,38; 91,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,09; 92,35</t>
+          <t>79,85; 91,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,58; 95,26</t>
+          <t>89,09; 95,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,41; 90,27</t>
+          <t>83,46; 89,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>84,79; 92,51</t>
+          <t>85,16; 92,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>88,77; 96,93</t>
+          <t>89,36; 96,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,02; 89,17</t>
+          <t>79,86; 89,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>84,94; 93,45</t>
+          <t>85,38; 93,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>91,92; 97,71</t>
+          <t>91,86; 97,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,66; 89,94</t>
+          <t>81,23; 89,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,21; 95,37</t>
+          <t>88,21; 95,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,35; 96,99</t>
+          <t>92,16; 96,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>81,97; 88,41</t>
+          <t>82,09; 88,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>88,44; 93,71</t>
+          <t>88,08; 93,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>89,74; 94,69</t>
+          <t>89,84; 94,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,01; 90,46</t>
+          <t>85,1; 90,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88,45; 94,01</t>
+          <t>88,36; 94,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,9; 95,3</t>
+          <t>91,01; 95,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>88,35; 92,99</t>
+          <t>88,47; 93,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>87,75; 93,33</t>
+          <t>87,63; 93,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,12; 94,48</t>
+          <t>91,22; 94,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>87,45; 91,25</t>
+          <t>87,5; 91,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>88,89; 92,99</t>
+          <t>89,13; 93,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>91,44; 95,68</t>
+          <t>91,11; 95,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,34; 91,73</t>
+          <t>86,56; 91,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>86,92; 92,0</t>
+          <t>86,96; 92,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>89,43; 94,2</t>
+          <t>89,37; 94,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>88,89; 93,31</t>
+          <t>89,16; 93,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>87,86; 92,63</t>
+          <t>87,84; 92,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>91,28; 94,42</t>
+          <t>90,99; 94,24</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>88,6; 92,11</t>
+          <t>88,61; 92,17</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>88,32; 91,64</t>
+          <t>88,26; 91,66</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,52; 93,75</t>
+          <t>91,64; 93,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>85,01; 87,62</t>
+          <t>84,89; 87,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>89,58; 91,78</t>
+          <t>89,34; 91,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>91,94; 93,88</t>
+          <t>91,94; 93,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>87,79; 90,13</t>
+          <t>87,83; 90,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>89,99; 92,28</t>
+          <t>89,89; 92,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>92,14; 93,6</t>
+          <t>92,05; 93,48</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>86,92; 88,63</t>
+          <t>86,89; 88,6</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>89,98; 91,59</t>
+          <t>90,16; 91,67</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
